--- a/biology/Botanique/Iris_du_Missouri/Iris_du_Missouri.xlsx
+++ b/biology/Botanique/Iris_du_Missouri/Iris_du_Missouri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Iris du Missouri
 Iris missouriensis, l’Iris du Missouri, est une espèce de plantes à fleurs de la famille des Iridaceae et du genre Iris, que l’on trouve à l’ouest de l’Amérique du Nord.
@@ -512,7 +524,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La fleur est présente jusqu’à des altitudes élevées en montagne tout comme près des côtes. En Californie, on la considère comme une plante invasive car elle se répand fortement dans les près dévoués au bétail alors qu’elle n’est pas appréciée de celui-ci. Les Amérindiens (Païutes, Shoshones) se servaient d’ailleurs de la plante pour se faire vomir ou consommaient même la racine contre le mal de dents.
 </t>
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ses fleurs ont une coloration mauve à bleu-mauve. Certains pétales sont blanchâtres et sont recouverts de sortes de nervures mauves.
 </t>
@@ -574,11 +590,13 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est décrite par Thomas Nuttall, en 1834, qui la classe dans le genre Iris sous le nom binominal Iris missouriensis[1].
-Ce taxon porte en français le noms vernaculaire ou normalisé « Iris du Missouri[2] ».
-Iris missouriensis a pour synonymes[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est décrite par Thomas Nuttall, en 1834, qui la classe dans le genre Iris sous le nom binominal Iris missouriensis.
+Ce taxon porte en français le noms vernaculaire ou normalisé « Iris du Missouri ».
+Iris missouriensis a pour synonymes :
 Dielsiris arizonica (Dykes) M.B.Crespo, Mart.-Azorín &amp; Mavrodiev
 Dielsiris missouriensis (Nutt.) M.B.Crespo, Mart.-Azorín &amp; Mavrodiev
 Dielsiris pariensis (S.L.Welsh) M.B.Crespo, Mart.-Azorín &amp; Mavrodiev
